--- a/dr/protected/commands/template/month_more_lirun.xlsx
+++ b/dr/protected/commands/template/month_more_lirun.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="206">
   <si>
     <r>
       <rPr>
@@ -662,9 +662,6 @@
   </si>
   <si>
     <t>去年今月利润额</t>
-  </si>
-  <si>
-    <t>去年今月生意额</t>
   </si>
   <si>
     <t>总分</t>
@@ -1489,13 +1486,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1582,49 +1579,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1633,13 +1595,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1655,10 +1610,76 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1668,10 +1689,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1690,64 +1728,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1772,6 +1769,11 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1815,49 +1817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1875,19 +1835,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,31 +1889,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1935,13 +1919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,7 +1937,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1971,13 +1967,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,61 +2021,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2068,24 +2088,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2179,13 +2181,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="62"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color indexed="62"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2207,47 +2272,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2255,35 +2279,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2316,205 +2318,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2523,29 +2525,29 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2564,10 +2566,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1">
@@ -2579,7 +2581,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2591,10 +2593,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2606,13 +2608,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2621,16 +2623,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2639,7 +2644,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2654,16 +2659,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2681,10 +2686,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2693,22 +2698,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2717,10 +2722,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2729,10 +2734,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2750,19 +2755,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2771,22 +2776,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2795,16 +2800,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2813,7 +2818,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2822,34 +2827,34 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2860,10 +2865,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2895,26 +2900,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -2940,9 +2945,9 @@
       <color rgb="0033CCCC"/>
       <color rgb="00CCFFCC"/>
       <color rgb="00FF99CC"/>
-      <color rgb="00FFFF00"/>
       <color rgb="000000FF"/>
       <color rgb="00000000"/>
+      <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3289,8 +3294,8 @@
   <sheetPr/>
   <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3923,1326 +3928,1324 @@
     </row>
     <row r="76" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A76" s="17"/>
-      <c r="B76" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="21"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="22"/>
     </row>
     <row r="77" ht="21.75" spans="1:4">
       <c r="A77" s="13"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="28"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="29"/>
     </row>
     <row r="78" ht="21.75" spans="1:4">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="32">
+        <v>53</v>
+      </c>
+      <c r="D78" s="20"/>
+    </row>
+    <row r="79" ht="24.95" customHeight="1" spans="1:4">
+      <c r="A79" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="31">
-        <v>53</v>
-      </c>
-      <c r="D78" s="20"/>
-    </row>
-    <row r="79" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A79" s="32" t="s">
+      <c r="B79" s="34"/>
+      <c r="C79" s="32">
+        <v>23</v>
+      </c>
+      <c r="D79" s="20"/>
+    </row>
+    <row r="80" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A80" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="31">
-        <v>23</v>
-      </c>
-      <c r="D79" s="20"/>
-    </row>
-    <row r="80" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A80" s="34" t="s">
+      <c r="B80" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="C80" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="D80" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="100" t="s">
+    </row>
+    <row r="81" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A81" s="35"/>
+      <c r="B81" s="36" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A81" s="34"/>
-      <c r="B81" s="35" t="s">
+      <c r="C81" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="D81" s="101" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A82" s="35"/>
+      <c r="B82" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D81" s="100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A82" s="34"/>
-      <c r="B82" s="38" t="s">
+      <c r="C82" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="101" t="s">
+    </row>
+    <row r="83" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A83" s="35"/>
+      <c r="B83" s="39" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A83" s="34"/>
-      <c r="B83" s="38" t="s">
+      <c r="C83" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A84" s="35"/>
+      <c r="B84" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="101" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A84" s="34"/>
-      <c r="B84" s="38" t="s">
+      <c r="C84" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" s="101" t="s">
+    </row>
+    <row r="85" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A85" s="35"/>
+      <c r="B85" s="39" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A85" s="34"/>
-      <c r="B85" s="38" t="s">
+      <c r="C85" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A86" s="35"/>
+      <c r="B86" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D85" s="101" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A86" s="34"/>
-      <c r="B86" s="38" t="s">
+      <c r="C86" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="101" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A87" s="35"/>
+      <c r="B87" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D86" s="100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A87" s="34"/>
-      <c r="B87" s="38" t="s">
+      <c r="C87" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="101" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="115.5" spans="1:4">
+      <c r="A88" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" s="2" customFormat="1" ht="115.5" spans="1:4">
-      <c r="A88" s="40" t="s">
+      <c r="B88" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="C88" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D88" s="39" t="s">
+    </row>
+    <row r="89" s="2" customFormat="1" ht="115.5" spans="1:4">
+      <c r="A89" s="41"/>
+      <c r="B89" s="42" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="115.5" spans="1:4">
-      <c r="A89" s="40"/>
-      <c r="B89" s="41" t="s">
+      <c r="C89" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A90" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D89" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A90" s="42" t="s">
+      <c r="B90" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="C90" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D90" s="39" t="s">
+    </row>
+    <row r="91" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
+      <c r="A91" s="44" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A91" s="43" t="s">
+      <c r="B91" s="45"/>
+      <c r="C91" s="46">
+        <v>12</v>
+      </c>
+      <c r="D91" s="47"/>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="99" spans="1:4">
+      <c r="A92" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="45">
-        <v>12</v>
-      </c>
-      <c r="D91" s="46"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A92" s="47" t="s">
+      <c r="B92" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B92" s="48" t="s">
+      <c r="C92" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D92" s="50" t="s">
+    </row>
+    <row r="93" s="2" customFormat="1" ht="49.5" spans="1:4">
+      <c r="A93" s="48"/>
+      <c r="B93" s="49" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="49.5" spans="1:4">
-      <c r="A93" s="47"/>
-      <c r="B93" s="48" t="s">
+      <c r="C93" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="D93" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D93" s="50" t="s">
+    </row>
+    <row r="94" s="2" customFormat="1" ht="33" spans="1:4">
+      <c r="A94" s="48"/>
+      <c r="B94" s="49" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="33" spans="1:4">
-      <c r="A94" s="47"/>
-      <c r="B94" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" s="51" t="str">
+      <c r="C94" s="52" t="str">
         <f>B21</f>
         <v>当月最高技术员生意金额</v>
       </c>
-      <c r="D94" s="50" t="s">
+      <c r="D94" s="51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="99" spans="1:4">
+      <c r="A95" s="48" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="95" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A95" s="47" t="s">
+      <c r="B95" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="C95" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="D95" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D95" s="50" t="s">
+    </row>
+    <row r="96" s="2" customFormat="1" ht="99" spans="1:4">
+      <c r="A96" s="48"/>
+      <c r="B96" s="49" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="96" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A96" s="47"/>
-      <c r="B96" s="48" t="s">
+      <c r="C96" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="49" t="s">
+      <c r="D96" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D96" s="50" t="s">
+    </row>
+    <row r="97" s="2" customFormat="1" ht="66" spans="1:4">
+      <c r="A97" s="48" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A97" s="47" t="s">
+      <c r="B97" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="B97" s="52" t="s">
+      <c r="C97" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="D97" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="D97" s="54" t="s">
+    </row>
+    <row r="98" s="2" customFormat="1" ht="33" spans="1:4">
+      <c r="A98" s="48"/>
+      <c r="B98" s="53" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="33" spans="1:4">
-      <c r="A98" s="47"/>
-      <c r="B98" s="52" t="s">
+      <c r="C98" s="56">
+        <v>0.216666666666667</v>
+      </c>
+      <c r="D98" s="51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
+      <c r="A99" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="C98" s="55">
-        <v>0.216666666666667</v>
-      </c>
-      <c r="D98" s="50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A99" s="43" t="s">
+      <c r="B99" s="57"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="59"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="99" spans="1:4">
+      <c r="A100" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="56"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="58"/>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A100" s="59" t="s">
+      <c r="B100" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="B100" s="60" t="s">
+      <c r="C100" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="61" t="s">
+      <c r="D100" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D100" s="62" t="s">
+    </row>
+    <row r="101" s="2" customFormat="1" ht="99" spans="1:4">
+      <c r="A101" s="60"/>
+      <c r="B101" s="61" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A101" s="59"/>
-      <c r="B101" s="60" t="s">
+      <c r="C101" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="C101" s="61" t="s">
+      <c r="D101" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="D101" s="62" t="s">
+    </row>
+    <row r="102" s="2" customFormat="1" ht="101" customHeight="1" spans="1:4">
+      <c r="A102" s="64" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="102" s="2" customFormat="1" ht="101" customHeight="1" spans="1:4">
-      <c r="A102" s="63" t="s">
+      <c r="B102" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="B102" s="64" t="s">
+      <c r="C102" s="62"/>
+      <c r="D102" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="61"/>
-      <c r="D102" s="62" t="s">
+    </row>
+    <row r="103" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A103" s="66"/>
+      <c r="B103" s="67" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="103" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A103" s="65"/>
-      <c r="B103" s="66" t="s">
+      <c r="C103" s="62"/>
+      <c r="D103" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C103" s="61"/>
-      <c r="D103" s="62" t="s">
+    </row>
+    <row r="104" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A104" s="68"/>
+      <c r="B104" s="67" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="104" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A104" s="67"/>
-      <c r="B104" s="66" t="s">
+      <c r="C104" s="62"/>
+      <c r="D104" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="C104" s="61"/>
-      <c r="D104" s="62" t="s">
+    </row>
+    <row r="105" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A105" s="60" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="105" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A105" s="59" t="s">
+      <c r="B105" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="B105" s="60" t="s">
+      <c r="C105" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="C105" s="68" t="s">
+      <c r="D105" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="D105" s="69" t="s">
+    </row>
+    <row r="106" s="2" customFormat="1" spans="1:4">
+      <c r="A106" s="60"/>
+      <c r="B106" s="71" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="106" s="2" customFormat="1" spans="1:4">
-      <c r="A106" s="59"/>
-      <c r="B106" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C106" s="68" t="str">
+      <c r="C106" s="69" t="str">
         <f>B29</f>
         <v>上月底公司累计结余</v>
       </c>
-      <c r="D106" s="69" t="s">
-        <v>114</v>
+      <c r="D106" s="70" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="107" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A107" s="59" t="s">
+      <c r="A107" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B107" s="70" t="s">
+      <c r="C107" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C107" s="61" t="s">
+      <c r="D107" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="D107" s="62" t="s">
+    </row>
+    <row r="108" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
+      <c r="A108" s="44" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="108" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A108" s="43" t="s">
+      <c r="B108" s="45"/>
+      <c r="C108" s="72">
+        <v>11.73</v>
+      </c>
+      <c r="D108" s="73"/>
+    </row>
+    <row r="109" s="3" customFormat="1" ht="99" spans="1:4">
+      <c r="A109" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="44"/>
-      <c r="C108" s="71">
-        <v>11.73</v>
-      </c>
-      <c r="D108" s="72"/>
-    </row>
-    <row r="109" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A109" s="73" t="s">
+      <c r="B109" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="C109" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="C109" s="75" t="s">
+      <c r="D109" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="D109" s="76" t="s">
+    </row>
+    <row r="110" s="3" customFormat="1" ht="99" spans="1:4">
+      <c r="A110" s="74" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="110" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A110" s="73" t="s">
+      <c r="B110" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="B110" s="74" t="s">
+      <c r="C110" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="C110" s="75" t="s">
+      <c r="D110" s="77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" s="3" customFormat="1" ht="99" spans="1:4">
+      <c r="A111" s="74"/>
+      <c r="B111" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="D110" s="76" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="111" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A111" s="73"/>
-      <c r="B111" s="74" t="s">
+      <c r="C111" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="C111" s="75" t="s">
+      <c r="D111" s="77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" s="3" customFormat="1" ht="33" spans="1:4">
+      <c r="A112" s="74"/>
+      <c r="B112" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="D111" s="76" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" s="3" customFormat="1" ht="33" spans="1:4">
-      <c r="A112" s="73"/>
-      <c r="B112" s="77" t="s">
+      <c r="C112" s="79">
+        <v>1.43055555555556</v>
+      </c>
+      <c r="D112" s="80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" s="3" customFormat="1" ht="99" spans="1:4">
+      <c r="A113" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="C112" s="78">
-        <v>1.43055555555556</v>
-      </c>
-      <c r="D112" s="79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A113" s="73" t="s">
+      <c r="B113" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="B113" s="74" t="s">
+      <c r="C113" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="C113" s="80" t="s">
+      <c r="D113" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="D113" s="79" t="s">
+    </row>
+    <row r="114" s="3" customFormat="1" ht="99" spans="1:4">
+      <c r="A114" s="74"/>
+      <c r="B114" s="75" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="114" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A114" s="73"/>
-      <c r="B114" s="74" t="s">
+      <c r="C114" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C114" s="80" t="s">
+      <c r="D114" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="D114" s="76" t="s">
+    </row>
+    <row r="115" s="2" customFormat="1" ht="99" spans="1:4">
+      <c r="A115" s="74" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="115" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A115" s="73" t="s">
+      <c r="B115" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="B115" s="74" t="s">
+      <c r="C115" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="C115" s="75" t="s">
+      <c r="D115" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="D115" s="76" t="s">
+    </row>
+    <row r="116" s="2" customFormat="1" ht="66" spans="1:4">
+      <c r="A116" s="74"/>
+      <c r="B116" s="75" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="116" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A116" s="73"/>
-      <c r="B116" s="74" t="s">
+      <c r="C116" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="C116" s="75" t="s">
+      <c r="D116" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="D116" s="76" t="s">
+    </row>
+    <row r="117" s="2" customFormat="1" ht="33" spans="1:4">
+      <c r="A117" s="74"/>
+      <c r="B117" s="75" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="117" s="2" customFormat="1" ht="33" spans="1:4">
-      <c r="A117" s="73"/>
-      <c r="B117" s="74" t="s">
+      <c r="C117" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="C117" s="75" t="s">
+      <c r="D117" s="77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="99" spans="1:4">
+      <c r="A118" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="D117" s="76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A118" s="73" t="s">
+      <c r="B118" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="B118" s="74" t="s">
+      <c r="C118" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="C118" s="75" t="s">
+      <c r="D118" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="D118" s="76" t="s">
+    </row>
+    <row r="119" s="2" customFormat="1" ht="99" spans="1:4">
+      <c r="A119" s="74"/>
+      <c r="B119" s="75" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A119" s="73"/>
-      <c r="B119" s="74" t="s">
+      <c r="C119" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="C119" s="75" t="s">
+      <c r="D119" s="77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="66" spans="1:4">
+      <c r="A120" s="74"/>
+      <c r="B120" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="D119" s="76" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A120" s="73"/>
-      <c r="B120" s="77" t="s">
+      <c r="C120" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="C120" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="D120" s="76" t="s">
+    </row>
+    <row r="121" s="2" customFormat="1" ht="99" spans="1:4">
+      <c r="A121" s="74"/>
+      <c r="B121" s="75" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="121" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A121" s="73"/>
-      <c r="B121" s="74" t="s">
+      <c r="C121" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="D121" s="77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" s="2" customFormat="1" spans="1:4">
+      <c r="A122" s="74"/>
+      <c r="B122" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="79">
+        <v>5</v>
+      </c>
+      <c r="D122" s="80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
+      <c r="A123" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="C121" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D121" s="76" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" s="2" customFormat="1" spans="1:4">
-      <c r="A122" s="73"/>
-      <c r="B122" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="C122" s="78">
-        <v>5</v>
-      </c>
-      <c r="D122" s="79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A123" s="43" t="s">
+      <c r="B123" s="45"/>
+      <c r="C123" s="72">
+        <v>34</v>
+      </c>
+      <c r="D123" s="73"/>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="66" spans="1:4">
+      <c r="A124" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="B123" s="44"/>
-      <c r="C123" s="71">
-        <v>34</v>
-      </c>
-      <c r="D123" s="72"/>
-    </row>
-    <row r="124" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A124" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="B124" s="82" t="s">
+      <c r="C124" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="C124" s="83" t="s">
+      <c r="D124" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="D124" s="84" t="s">
+    </row>
+    <row r="125" s="2" customFormat="1" ht="66" spans="1:4">
+      <c r="A125" s="82" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="125" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A125" s="81" t="s">
+      <c r="B125" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="B125" s="82" t="s">
+      <c r="C125" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="D125" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="C125" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="D125" s="86" t="s">
+    </row>
+    <row r="126" s="2" customFormat="1" ht="49.5" spans="1:4">
+      <c r="A126" s="82"/>
+      <c r="B126" s="83" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="126" s="2" customFormat="1" ht="49.5" spans="1:4">
-      <c r="A126" s="81"/>
-      <c r="B126" s="82" t="s">
+      <c r="C126" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C126" s="85" t="s">
+      <c r="D126" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="D126" s="84" t="s">
+    </row>
+    <row r="127" s="2" customFormat="1" ht="66" spans="1:4">
+      <c r="A127" s="88" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="127" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A127" s="87" t="s">
+      <c r="B127" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="B127" s="88" t="s">
+      <c r="C127" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="C127" s="89" t="s">
+      <c r="D127" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="D127" s="86" t="s">
+    </row>
+    <row r="128" s="2" customFormat="1" ht="66" spans="1:4">
+      <c r="A128" s="88"/>
+      <c r="B128" s="89" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="128" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A128" s="87"/>
-      <c r="B128" s="88" t="s">
+      <c r="C128" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D128" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="C128" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="D128" s="86" t="s">
+    </row>
+    <row r="129" s="2" customFormat="1" ht="66" spans="1:4">
+      <c r="A129" s="88"/>
+      <c r="B129" s="89" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="129" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A129" s="87"/>
-      <c r="B129" s="88" t="s">
+      <c r="C129" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D129" s="87" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" s="2" customFormat="1" ht="20" customHeight="1" spans="1:4">
+      <c r="A130" s="88"/>
+      <c r="B130" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="C129" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="D129" s="86" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="130" s="2" customFormat="1" ht="20" customHeight="1" spans="1:4">
-      <c r="A130" s="87"/>
-      <c r="B130" s="88" t="s">
+      <c r="C130" s="84"/>
+      <c r="D130" s="87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" s="2" customFormat="1" ht="66" spans="1:4">
+      <c r="A131" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="C130" s="83"/>
-      <c r="D130" s="86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="131" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A131" s="90" t="s">
+      <c r="B131" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="B131" s="91" t="s">
-        <v>206</v>
-      </c>
-      <c r="C131" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="D131" s="93" t="s">
-        <v>193</v>
+      <c r="C131" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131" s="94" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:4">
       <c r="A132" s="4"/>
-      <c r="B132" s="94"/>
-      <c r="C132" s="95"/>
-      <c r="D132" s="96"/>
+      <c r="B132" s="95"/>
+      <c r="C132" s="96"/>
+      <c r="D132" s="97"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:4">
       <c r="A133" s="4"/>
-      <c r="B133" s="94"/>
-      <c r="C133" s="95"/>
-      <c r="D133" s="96"/>
+      <c r="B133" s="95"/>
+      <c r="C133" s="96"/>
+      <c r="D133" s="97"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:4">
       <c r="A134" s="4"/>
-      <c r="B134" s="94"/>
-      <c r="C134" s="95"/>
-      <c r="D134" s="96"/>
+      <c r="B134" s="95"/>
+      <c r="C134" s="96"/>
+      <c r="D134" s="97"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:4">
       <c r="A135" s="4"/>
-      <c r="B135" s="94"/>
-      <c r="C135" s="95"/>
-      <c r="D135" s="96"/>
+      <c r="B135" s="95"/>
+      <c r="C135" s="96"/>
+      <c r="D135" s="97"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:4">
       <c r="A136" s="4"/>
-      <c r="B136" s="94"/>
-      <c r="C136" s="95"/>
-      <c r="D136" s="96"/>
+      <c r="B136" s="95"/>
+      <c r="C136" s="96"/>
+      <c r="D136" s="97"/>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:4">
       <c r="A137" s="4"/>
-      <c r="B137" s="94"/>
-      <c r="C137" s="95"/>
-      <c r="D137" s="96"/>
+      <c r="B137" s="95"/>
+      <c r="C137" s="96"/>
+      <c r="D137" s="97"/>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:4">
       <c r="A138" s="4"/>
-      <c r="B138" s="94"/>
-      <c r="C138" s="95"/>
-      <c r="D138" s="96"/>
+      <c r="B138" s="95"/>
+      <c r="C138" s="96"/>
+      <c r="D138" s="97"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:4">
       <c r="A139" s="4"/>
-      <c r="B139" s="94"/>
-      <c r="C139" s="95"/>
-      <c r="D139" s="96"/>
+      <c r="B139" s="95"/>
+      <c r="C139" s="96"/>
+      <c r="D139" s="97"/>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:4">
       <c r="A140" s="4"/>
-      <c r="B140" s="94"/>
-      <c r="C140" s="95"/>
-      <c r="D140" s="96"/>
+      <c r="B140" s="95"/>
+      <c r="C140" s="96"/>
+      <c r="D140" s="97"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:4">
       <c r="A141" s="4"/>
-      <c r="B141" s="94"/>
-      <c r="C141" s="95"/>
-      <c r="D141" s="96"/>
+      <c r="B141" s="95"/>
+      <c r="C141" s="96"/>
+      <c r="D141" s="97"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:4">
       <c r="A142" s="4"/>
-      <c r="B142" s="94"/>
-      <c r="C142" s="95"/>
-      <c r="D142" s="96"/>
+      <c r="B142" s="95"/>
+      <c r="C142" s="96"/>
+      <c r="D142" s="97"/>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:4">
       <c r="A143" s="4"/>
-      <c r="B143" s="94"/>
-      <c r="C143" s="95"/>
-      <c r="D143" s="96"/>
+      <c r="B143" s="95"/>
+      <c r="C143" s="96"/>
+      <c r="D143" s="97"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:4">
       <c r="A144" s="4"/>
-      <c r="B144" s="94"/>
-      <c r="C144" s="95"/>
-      <c r="D144" s="96"/>
+      <c r="B144" s="95"/>
+      <c r="C144" s="96"/>
+      <c r="D144" s="97"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:4">
       <c r="A145" s="4"/>
-      <c r="B145" s="94"/>
-      <c r="C145" s="95"/>
-      <c r="D145" s="96"/>
+      <c r="B145" s="95"/>
+      <c r="C145" s="96"/>
+      <c r="D145" s="97"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:4">
       <c r="A146" s="4"/>
-      <c r="B146" s="94"/>
-      <c r="C146" s="95"/>
-      <c r="D146" s="96"/>
+      <c r="B146" s="95"/>
+      <c r="C146" s="96"/>
+      <c r="D146" s="97"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:4">
       <c r="A147" s="4"/>
-      <c r="B147" s="94"/>
-      <c r="C147" s="95"/>
-      <c r="D147" s="96"/>
+      <c r="B147" s="95"/>
+      <c r="C147" s="96"/>
+      <c r="D147" s="97"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:4">
       <c r="A148" s="4"/>
-      <c r="B148" s="94"/>
-      <c r="C148" s="95"/>
-      <c r="D148" s="96"/>
+      <c r="B148" s="95"/>
+      <c r="C148" s="96"/>
+      <c r="D148" s="97"/>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:4">
       <c r="A149" s="4"/>
-      <c r="B149" s="94"/>
-      <c r="C149" s="95"/>
-      <c r="D149" s="96"/>
+      <c r="B149" s="95"/>
+      <c r="C149" s="96"/>
+      <c r="D149" s="97"/>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:4">
       <c r="A150" s="4"/>
-      <c r="B150" s="94"/>
-      <c r="C150" s="95"/>
-      <c r="D150" s="96"/>
+      <c r="B150" s="95"/>
+      <c r="C150" s="96"/>
+      <c r="D150" s="97"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:4">
       <c r="A151" s="4"/>
-      <c r="B151" s="94"/>
-      <c r="C151" s="95"/>
-      <c r="D151" s="96"/>
+      <c r="B151" s="95"/>
+      <c r="C151" s="96"/>
+      <c r="D151" s="97"/>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:4">
       <c r="A152" s="4"/>
-      <c r="B152" s="94"/>
-      <c r="C152" s="95"/>
-      <c r="D152" s="96"/>
+      <c r="B152" s="95"/>
+      <c r="C152" s="96"/>
+      <c r="D152" s="97"/>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:4">
       <c r="A153" s="4"/>
-      <c r="B153" s="94"/>
-      <c r="C153" s="95"/>
-      <c r="D153" s="96"/>
+      <c r="B153" s="95"/>
+      <c r="C153" s="96"/>
+      <c r="D153" s="97"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:4">
       <c r="A154" s="4"/>
-      <c r="B154" s="94"/>
-      <c r="C154" s="95"/>
-      <c r="D154" s="96"/>
+      <c r="B154" s="95"/>
+      <c r="C154" s="96"/>
+      <c r="D154" s="97"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:4">
       <c r="A155" s="4"/>
-      <c r="B155" s="94"/>
-      <c r="C155" s="95"/>
-      <c r="D155" s="96"/>
+      <c r="B155" s="95"/>
+      <c r="C155" s="96"/>
+      <c r="D155" s="97"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:4">
       <c r="A156" s="4"/>
-      <c r="B156" s="94"/>
-      <c r="C156" s="95"/>
-      <c r="D156" s="96"/>
+      <c r="B156" s="95"/>
+      <c r="C156" s="96"/>
+      <c r="D156" s="97"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:4">
       <c r="A157" s="4"/>
-      <c r="B157" s="94"/>
-      <c r="C157" s="95"/>
-      <c r="D157" s="96"/>
+      <c r="B157" s="95"/>
+      <c r="C157" s="96"/>
+      <c r="D157" s="97"/>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:4">
       <c r="A158" s="4"/>
-      <c r="B158" s="94"/>
-      <c r="C158" s="95"/>
-      <c r="D158" s="96"/>
+      <c r="B158" s="95"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="97"/>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:4">
       <c r="A159" s="4"/>
-      <c r="B159" s="94"/>
-      <c r="C159" s="95"/>
-      <c r="D159" s="96"/>
+      <c r="B159" s="95"/>
+      <c r="C159" s="96"/>
+      <c r="D159" s="97"/>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:4">
       <c r="A160" s="4"/>
-      <c r="B160" s="94"/>
-      <c r="C160" s="95"/>
-      <c r="D160" s="96"/>
+      <c r="B160" s="95"/>
+      <c r="C160" s="96"/>
+      <c r="D160" s="97"/>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:4">
       <c r="A161" s="4"/>
-      <c r="B161" s="94"/>
-      <c r="C161" s="95"/>
-      <c r="D161" s="96"/>
+      <c r="B161" s="95"/>
+      <c r="C161" s="96"/>
+      <c r="D161" s="97"/>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:4">
       <c r="A162" s="4"/>
-      <c r="B162" s="94"/>
-      <c r="C162" s="95"/>
-      <c r="D162" s="96"/>
+      <c r="B162" s="95"/>
+      <c r="C162" s="96"/>
+      <c r="D162" s="97"/>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:4">
       <c r="A163" s="4"/>
-      <c r="B163" s="94"/>
-      <c r="C163" s="95"/>
-      <c r="D163" s="96"/>
+      <c r="B163" s="95"/>
+      <c r="C163" s="96"/>
+      <c r="D163" s="97"/>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:4">
       <c r="A164" s="4"/>
-      <c r="B164" s="94"/>
-      <c r="C164" s="95"/>
-      <c r="D164" s="96"/>
+      <c r="B164" s="95"/>
+      <c r="C164" s="96"/>
+      <c r="D164" s="97"/>
     </row>
     <row r="165" spans="2:4">
-      <c r="B165" s="97"/>
-      <c r="C165" s="98"/>
-      <c r="D165" s="99"/>
+      <c r="B165" s="98"/>
+      <c r="C165" s="99"/>
+      <c r="D165" s="100"/>
     </row>
     <row r="166" spans="2:4">
-      <c r="B166" s="97"/>
-      <c r="C166" s="98"/>
-      <c r="D166" s="99"/>
+      <c r="B166" s="98"/>
+      <c r="C166" s="99"/>
+      <c r="D166" s="100"/>
     </row>
     <row r="167" spans="2:4">
-      <c r="B167" s="97"/>
-      <c r="C167" s="98"/>
-      <c r="D167" s="99"/>
+      <c r="B167" s="98"/>
+      <c r="C167" s="99"/>
+      <c r="D167" s="100"/>
     </row>
     <row r="168" spans="2:4">
-      <c r="B168" s="97"/>
-      <c r="C168" s="98"/>
-      <c r="D168" s="99"/>
+      <c r="B168" s="98"/>
+      <c r="C168" s="99"/>
+      <c r="D168" s="100"/>
     </row>
     <row r="169" spans="2:4">
-      <c r="B169" s="97"/>
-      <c r="C169" s="98"/>
-      <c r="D169" s="99"/>
+      <c r="B169" s="98"/>
+      <c r="C169" s="99"/>
+      <c r="D169" s="100"/>
     </row>
     <row r="170" spans="2:4">
-      <c r="B170" s="97"/>
-      <c r="C170" s="98"/>
-      <c r="D170" s="99"/>
+      <c r="B170" s="98"/>
+      <c r="C170" s="99"/>
+      <c r="D170" s="100"/>
     </row>
     <row r="171" spans="2:4">
-      <c r="B171" s="97"/>
-      <c r="C171" s="98"/>
-      <c r="D171" s="99"/>
+      <c r="B171" s="98"/>
+      <c r="C171" s="99"/>
+      <c r="D171" s="100"/>
     </row>
     <row r="172" spans="2:4">
-      <c r="B172" s="97"/>
-      <c r="C172" s="98"/>
-      <c r="D172" s="99"/>
+      <c r="B172" s="98"/>
+      <c r="C172" s="99"/>
+      <c r="D172" s="100"/>
     </row>
     <row r="173" spans="2:4">
-      <c r="B173" s="97"/>
-      <c r="C173" s="98"/>
-      <c r="D173" s="99"/>
+      <c r="B173" s="98"/>
+      <c r="C173" s="99"/>
+      <c r="D173" s="100"/>
     </row>
     <row r="174" spans="2:4">
-      <c r="B174" s="97"/>
-      <c r="C174" s="98"/>
-      <c r="D174" s="99"/>
+      <c r="B174" s="98"/>
+      <c r="C174" s="99"/>
+      <c r="D174" s="100"/>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="97"/>
-      <c r="C175" s="98"/>
-      <c r="D175" s="99"/>
+      <c r="B175" s="98"/>
+      <c r="C175" s="99"/>
+      <c r="D175" s="100"/>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="97"/>
-      <c r="C176" s="98"/>
-      <c r="D176" s="99"/>
+      <c r="B176" s="98"/>
+      <c r="C176" s="99"/>
+      <c r="D176" s="100"/>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="97"/>
-      <c r="C177" s="98"/>
-      <c r="D177" s="99"/>
+      <c r="B177" s="98"/>
+      <c r="C177" s="99"/>
+      <c r="D177" s="100"/>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="97"/>
-      <c r="C178" s="98"/>
-      <c r="D178" s="99"/>
+      <c r="B178" s="98"/>
+      <c r="C178" s="99"/>
+      <c r="D178" s="100"/>
     </row>
     <row r="179" spans="2:4">
-      <c r="B179" s="97"/>
-      <c r="C179" s="98"/>
-      <c r="D179" s="99"/>
+      <c r="B179" s="98"/>
+      <c r="C179" s="99"/>
+      <c r="D179" s="100"/>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="97"/>
-      <c r="C180" s="98"/>
-      <c r="D180" s="99"/>
+      <c r="B180" s="98"/>
+      <c r="C180" s="99"/>
+      <c r="D180" s="100"/>
     </row>
     <row r="181" spans="2:4">
-      <c r="B181" s="97"/>
-      <c r="C181" s="98"/>
-      <c r="D181" s="99"/>
+      <c r="B181" s="98"/>
+      <c r="C181" s="99"/>
+      <c r="D181" s="100"/>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="97"/>
-      <c r="C182" s="98"/>
-      <c r="D182" s="99"/>
+      <c r="B182" s="98"/>
+      <c r="C182" s="99"/>
+      <c r="D182" s="100"/>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="97"/>
-      <c r="C183" s="98"/>
-      <c r="D183" s="99"/>
+      <c r="B183" s="98"/>
+      <c r="C183" s="99"/>
+      <c r="D183" s="100"/>
     </row>
     <row r="184" spans="2:4">
-      <c r="B184" s="97"/>
-      <c r="C184" s="98"/>
-      <c r="D184" s="99"/>
+      <c r="B184" s="98"/>
+      <c r="C184" s="99"/>
+      <c r="D184" s="100"/>
     </row>
     <row r="185" spans="2:4">
-      <c r="B185" s="97"/>
-      <c r="C185" s="98"/>
-      <c r="D185" s="99"/>
+      <c r="B185" s="98"/>
+      <c r="C185" s="99"/>
+      <c r="D185" s="100"/>
     </row>
     <row r="186" spans="2:4">
-      <c r="B186" s="97"/>
-      <c r="C186" s="98"/>
-      <c r="D186" s="99"/>
+      <c r="B186" s="98"/>
+      <c r="C186" s="99"/>
+      <c r="D186" s="100"/>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="97"/>
-      <c r="C187" s="98"/>
-      <c r="D187" s="99"/>
+      <c r="B187" s="98"/>
+      <c r="C187" s="99"/>
+      <c r="D187" s="100"/>
     </row>
     <row r="188" spans="2:4">
-      <c r="B188" s="97"/>
-      <c r="C188" s="98"/>
-      <c r="D188" s="99"/>
+      <c r="B188" s="98"/>
+      <c r="C188" s="99"/>
+      <c r="D188" s="100"/>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="97"/>
-      <c r="C189" s="98"/>
-      <c r="D189" s="99"/>
+      <c r="B189" s="98"/>
+      <c r="C189" s="99"/>
+      <c r="D189" s="100"/>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="97"/>
-      <c r="C190" s="98"/>
-      <c r="D190" s="99"/>
+      <c r="B190" s="98"/>
+      <c r="C190" s="99"/>
+      <c r="D190" s="100"/>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="97"/>
-      <c r="C191" s="98"/>
-      <c r="D191" s="99"/>
+      <c r="B191" s="98"/>
+      <c r="C191" s="99"/>
+      <c r="D191" s="100"/>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="97"/>
-      <c r="C192" s="98"/>
-      <c r="D192" s="99"/>
+      <c r="B192" s="98"/>
+      <c r="C192" s="99"/>
+      <c r="D192" s="100"/>
     </row>
     <row r="193" spans="2:4">
-      <c r="B193" s="97"/>
-      <c r="C193" s="98"/>
-      <c r="D193" s="99"/>
+      <c r="B193" s="98"/>
+      <c r="C193" s="99"/>
+      <c r="D193" s="100"/>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="97"/>
-      <c r="C194" s="98"/>
-      <c r="D194" s="99"/>
+      <c r="B194" s="98"/>
+      <c r="C194" s="99"/>
+      <c r="D194" s="100"/>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="97"/>
-      <c r="C195" s="98"/>
-      <c r="D195" s="99"/>
+      <c r="B195" s="98"/>
+      <c r="C195" s="99"/>
+      <c r="D195" s="100"/>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="97"/>
-      <c r="C196" s="98"/>
-      <c r="D196" s="99"/>
+      <c r="B196" s="98"/>
+      <c r="C196" s="99"/>
+      <c r="D196" s="100"/>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="97"/>
-      <c r="C197" s="98"/>
-      <c r="D197" s="99"/>
+      <c r="B197" s="98"/>
+      <c r="C197" s="99"/>
+      <c r="D197" s="100"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="97"/>
-      <c r="C198" s="98"/>
-      <c r="D198" s="99"/>
+      <c r="B198" s="98"/>
+      <c r="C198" s="99"/>
+      <c r="D198" s="100"/>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="97"/>
-      <c r="C199" s="98"/>
-      <c r="D199" s="99"/>
+      <c r="B199" s="98"/>
+      <c r="C199" s="99"/>
+      <c r="D199" s="100"/>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="97"/>
-      <c r="C200" s="98"/>
-      <c r="D200" s="99"/>
+      <c r="B200" s="98"/>
+      <c r="C200" s="99"/>
+      <c r="D200" s="100"/>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="97"/>
-      <c r="C201" s="98"/>
-      <c r="D201" s="99"/>
+      <c r="B201" s="98"/>
+      <c r="C201" s="99"/>
+      <c r="D201" s="100"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="97"/>
-      <c r="C202" s="98"/>
-      <c r="D202" s="99"/>
+      <c r="B202" s="98"/>
+      <c r="C202" s="99"/>
+      <c r="D202" s="100"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="97"/>
-      <c r="C203" s="98"/>
-      <c r="D203" s="99"/>
+      <c r="B203" s="98"/>
+      <c r="C203" s="99"/>
+      <c r="D203" s="100"/>
     </row>
     <row r="204" spans="2:4">
-      <c r="B204" s="97"/>
-      <c r="C204" s="98"/>
-      <c r="D204" s="99"/>
+      <c r="B204" s="98"/>
+      <c r="C204" s="99"/>
+      <c r="D204" s="100"/>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" s="97"/>
-      <c r="C205" s="98"/>
-      <c r="D205" s="99"/>
+      <c r="B205" s="98"/>
+      <c r="C205" s="99"/>
+      <c r="D205" s="100"/>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" s="97"/>
-      <c r="C206" s="98"/>
-      <c r="D206" s="99"/>
+      <c r="B206" s="98"/>
+      <c r="C206" s="99"/>
+      <c r="D206" s="100"/>
     </row>
     <row r="207" spans="2:4">
-      <c r="B207" s="97"/>
-      <c r="C207" s="98"/>
-      <c r="D207" s="99"/>
+      <c r="B207" s="98"/>
+      <c r="C207" s="99"/>
+      <c r="D207" s="100"/>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="97"/>
-      <c r="C208" s="98"/>
-      <c r="D208" s="99"/>
+      <c r="B208" s="98"/>
+      <c r="C208" s="99"/>
+      <c r="D208" s="100"/>
     </row>
     <row r="209" spans="2:4">
-      <c r="B209" s="97"/>
-      <c r="C209" s="98"/>
-      <c r="D209" s="99"/>
+      <c r="B209" s="98"/>
+      <c r="C209" s="99"/>
+      <c r="D209" s="100"/>
     </row>
     <row r="210" spans="2:4">
-      <c r="B210" s="97"/>
-      <c r="C210" s="98"/>
-      <c r="D210" s="99"/>
+      <c r="B210" s="98"/>
+      <c r="C210" s="99"/>
+      <c r="D210" s="100"/>
     </row>
     <row r="211" spans="2:4">
-      <c r="B211" s="97"/>
-      <c r="C211" s="98"/>
-      <c r="D211" s="99"/>
+      <c r="B211" s="98"/>
+      <c r="C211" s="99"/>
+      <c r="D211" s="100"/>
     </row>
     <row r="212" spans="2:4">
-      <c r="B212" s="97"/>
-      <c r="C212" s="98"/>
-      <c r="D212" s="99"/>
+      <c r="B212" s="98"/>
+      <c r="C212" s="99"/>
+      <c r="D212" s="100"/>
     </row>
     <row r="213" spans="2:4">
-      <c r="B213" s="97"/>
-      <c r="C213" s="98"/>
-      <c r="D213" s="99"/>
+      <c r="B213" s="98"/>
+      <c r="C213" s="99"/>
+      <c r="D213" s="100"/>
     </row>
     <row r="214" spans="2:4">
-      <c r="B214" s="97"/>
-      <c r="C214" s="98"/>
-      <c r="D214" s="99"/>
+      <c r="B214" s="98"/>
+      <c r="C214" s="99"/>
+      <c r="D214" s="100"/>
     </row>
     <row r="215" spans="2:4">
-      <c r="B215" s="97"/>
-      <c r="C215" s="98"/>
-      <c r="D215" s="99"/>
+      <c r="B215" s="98"/>
+      <c r="C215" s="99"/>
+      <c r="D215" s="100"/>
     </row>
     <row r="216" spans="2:4">
-      <c r="B216" s="97"/>
-      <c r="C216" s="98"/>
-      <c r="D216" s="99"/>
+      <c r="B216" s="98"/>
+      <c r="C216" s="99"/>
+      <c r="D216" s="100"/>
     </row>
     <row r="217" spans="2:4">
-      <c r="B217" s="97"/>
-      <c r="C217" s="98"/>
-      <c r="D217" s="99"/>
+      <c r="B217" s="98"/>
+      <c r="C217" s="99"/>
+      <c r="D217" s="100"/>
     </row>
     <row r="218" spans="2:4">
-      <c r="B218" s="97"/>
-      <c r="C218" s="98"/>
-      <c r="D218" s="99"/>
+      <c r="B218" s="98"/>
+      <c r="C218" s="99"/>
+      <c r="D218" s="100"/>
     </row>
     <row r="219" spans="2:4">
-      <c r="B219" s="97"/>
-      <c r="C219" s="98"/>
-      <c r="D219" s="99"/>
+      <c r="B219" s="98"/>
+      <c r="C219" s="99"/>
+      <c r="D219" s="100"/>
     </row>
     <row r="220" spans="2:4">
-      <c r="B220" s="97"/>
-      <c r="C220" s="98"/>
-      <c r="D220" s="99"/>
+      <c r="B220" s="98"/>
+      <c r="C220" s="99"/>
+      <c r="D220" s="100"/>
     </row>
     <row r="221" spans="2:4">
-      <c r="B221" s="97"/>
-      <c r="C221" s="98"/>
-      <c r="D221" s="99"/>
+      <c r="B221" s="98"/>
+      <c r="C221" s="99"/>
+      <c r="D221" s="100"/>
     </row>
     <row r="222" spans="2:4">
-      <c r="B222" s="97"/>
-      <c r="C222" s="98"/>
-      <c r="D222" s="99"/>
+      <c r="B222" s="98"/>
+      <c r="C222" s="99"/>
+      <c r="D222" s="100"/>
     </row>
     <row r="223" spans="2:4">
-      <c r="B223" s="97"/>
-      <c r="C223" s="98"/>
-      <c r="D223" s="99"/>
+      <c r="B223" s="98"/>
+      <c r="C223" s="99"/>
+      <c r="D223" s="100"/>
     </row>
     <row r="224" spans="2:4">
-      <c r="B224" s="97"/>
-      <c r="C224" s="98"/>
-      <c r="D224" s="99"/>
+      <c r="B224" s="98"/>
+      <c r="C224" s="99"/>
+      <c r="D224" s="100"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="97"/>
-      <c r="C225" s="98"/>
-      <c r="D225" s="99"/>
+      <c r="B225" s="98"/>
+      <c r="C225" s="99"/>
+      <c r="D225" s="100"/>
     </row>
     <row r="226" spans="2:4">
-      <c r="B226" s="97"/>
-      <c r="C226" s="98"/>
-      <c r="D226" s="99"/>
+      <c r="B226" s="98"/>
+      <c r="C226" s="99"/>
+      <c r="D226" s="100"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="97"/>
-      <c r="C227" s="98"/>
-      <c r="D227" s="99"/>
+      <c r="B227" s="98"/>
+      <c r="C227" s="99"/>
+      <c r="D227" s="100"/>
     </row>
     <row r="228" spans="2:4">
-      <c r="B228" s="97"/>
-      <c r="C228" s="98"/>
-      <c r="D228" s="99"/>
+      <c r="B228" s="98"/>
+      <c r="C228" s="99"/>
+      <c r="D228" s="100"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="97"/>
-      <c r="C229" s="98"/>
-      <c r="D229" s="99"/>
+      <c r="B229" s="98"/>
+      <c r="C229" s="99"/>
+      <c r="D229" s="100"/>
     </row>
     <row r="230" spans="2:4">
-      <c r="B230" s="97"/>
-      <c r="C230" s="98"/>
-      <c r="D230" s="99"/>
+      <c r="B230" s="98"/>
+      <c r="C230" s="99"/>
+      <c r="D230" s="100"/>
     </row>
     <row r="231" spans="2:4">
-      <c r="B231" s="97"/>
-      <c r="C231" s="98"/>
-      <c r="D231" s="99"/>
+      <c r="B231" s="98"/>
+      <c r="C231" s="99"/>
+      <c r="D231" s="100"/>
     </row>
     <row r="232" spans="2:4">
-      <c r="B232" s="97"/>
-      <c r="C232" s="98"/>
-      <c r="D232" s="99"/>
+      <c r="B232" s="98"/>
+      <c r="C232" s="99"/>
+      <c r="D232" s="100"/>
     </row>
     <row r="233" spans="2:4">
-      <c r="B233" s="97"/>
-      <c r="C233" s="98"/>
-      <c r="D233" s="99"/>
+      <c r="B233" s="98"/>
+      <c r="C233" s="99"/>
+      <c r="D233" s="100"/>
     </row>
     <row r="234" spans="2:4">
-      <c r="B234" s="97"/>
-      <c r="C234" s="98"/>
-      <c r="D234" s="99"/>
+      <c r="B234" s="98"/>
+      <c r="C234" s="99"/>
+      <c r="D234" s="100"/>
     </row>
     <row r="235" spans="2:4">
-      <c r="B235" s="97"/>
-      <c r="C235" s="98"/>
-      <c r="D235" s="99"/>
+      <c r="B235" s="98"/>
+      <c r="C235" s="99"/>
+      <c r="D235" s="100"/>
     </row>
     <row r="236" spans="2:4">
-      <c r="B236" s="97"/>
-      <c r="C236" s="98"/>
-      <c r="D236" s="99"/>
+      <c r="B236" s="98"/>
+      <c r="C236" s="99"/>
+      <c r="D236" s="100"/>
     </row>
     <row r="237" spans="2:4">
-      <c r="B237" s="97"/>
-      <c r="C237" s="98"/>
-      <c r="D237" s="99"/>
+      <c r="B237" s="98"/>
+      <c r="C237" s="99"/>
+      <c r="D237" s="100"/>
     </row>
     <row r="238" spans="2:4">
-      <c r="B238" s="97"/>
-      <c r="C238" s="98"/>
-      <c r="D238" s="99"/>
+      <c r="B238" s="98"/>
+      <c r="C238" s="99"/>
+      <c r="D238" s="100"/>
     </row>
     <row r="239" spans="2:4">
-      <c r="B239" s="97"/>
-      <c r="C239" s="98"/>
-      <c r="D239" s="99"/>
+      <c r="B239" s="98"/>
+      <c r="C239" s="99"/>
+      <c r="D239" s="100"/>
     </row>
     <row r="240" spans="2:4">
-      <c r="B240" s="97"/>
-      <c r="C240" s="98"/>
-      <c r="D240" s="99"/>
+      <c r="B240" s="98"/>
+      <c r="C240" s="99"/>
+      <c r="D240" s="100"/>
     </row>
     <row r="241" spans="2:4">
-      <c r="B241" s="97"/>
-      <c r="C241" s="98"/>
-      <c r="D241" s="99"/>
+      <c r="B241" s="98"/>
+      <c r="C241" s="99"/>
+      <c r="D241" s="100"/>
     </row>
     <row r="242" spans="2:4">
-      <c r="B242" s="97"/>
-      <c r="C242" s="98"/>
-      <c r="D242" s="99"/>
+      <c r="B242" s="98"/>
+      <c r="C242" s="99"/>
+      <c r="D242" s="100"/>
     </row>
     <row r="243" spans="2:4">
-      <c r="B243" s="97"/>
-      <c r="C243" s="98"/>
-      <c r="D243" s="99"/>
+      <c r="B243" s="98"/>
+      <c r="C243" s="99"/>
+      <c r="D243" s="100"/>
     </row>
     <row r="244" spans="2:4">
-      <c r="B244" s="97"/>
-      <c r="C244" s="98"/>
-      <c r="D244" s="99"/>
+      <c r="B244" s="98"/>
+      <c r="C244" s="99"/>
+      <c r="D244" s="100"/>
     </row>
     <row r="245" spans="2:4">
-      <c r="B245" s="97"/>
-      <c r="C245" s="98"/>
-      <c r="D245" s="99"/>
+      <c r="B245" s="98"/>
+      <c r="C245" s="99"/>
+      <c r="D245" s="100"/>
     </row>
     <row r="246" spans="2:4">
-      <c r="B246" s="97"/>
-      <c r="C246" s="98"/>
-      <c r="D246" s="99"/>
+      <c r="B246" s="98"/>
+      <c r="C246" s="99"/>
+      <c r="D246" s="100"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="97"/>
-      <c r="C247" s="98"/>
-      <c r="D247" s="99"/>
+      <c r="B247" s="98"/>
+      <c r="C247" s="99"/>
+      <c r="D247" s="100"/>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="97"/>
-      <c r="C248" s="98"/>
-      <c r="D248" s="99"/>
+      <c r="B248" s="98"/>
+      <c r="C248" s="99"/>
+      <c r="D248" s="100"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="97"/>
-      <c r="C249" s="98"/>
-      <c r="D249" s="99"/>
+      <c r="B249" s="98"/>
+      <c r="C249" s="99"/>
+      <c r="D249" s="100"/>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="97"/>
-      <c r="C250" s="98"/>
-      <c r="D250" s="99"/>
+      <c r="B250" s="98"/>
+      <c r="C250" s="99"/>
+      <c r="D250" s="100"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="97"/>
-      <c r="C251" s="98"/>
-      <c r="D251" s="99"/>
+      <c r="B251" s="98"/>
+      <c r="C251" s="99"/>
+      <c r="D251" s="100"/>
     </row>
     <row r="252" spans="2:4">
-      <c r="B252" s="97"/>
-      <c r="C252" s="98"/>
-      <c r="D252" s="99"/>
+      <c r="B252" s="98"/>
+      <c r="C252" s="99"/>
+      <c r="D252" s="100"/>
     </row>
     <row r="253" spans="2:4">
-      <c r="B253" s="97"/>
-      <c r="C253" s="98"/>
-      <c r="D253" s="99"/>
+      <c r="B253" s="98"/>
+      <c r="C253" s="99"/>
+      <c r="D253" s="100"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/dr/protected/commands/template/month_more_lirun.xlsx
+++ b/dr/protected/commands/template/month_more_lirun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="12" r:id="rId1"/>
@@ -791,7 +791,7 @@
     <t>技术员生产力</t>
   </si>
   <si>
-    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
+    <t>技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
   </si>
   <si>
     <t>&gt;20% : 5
@@ -802,7 +802,7 @@
 &lt; -30% : 0</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
+    <t>技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
   </si>
   <si>
     <t>35%(4)</t>
@@ -813,7 +813,7 @@
 10% - 30% ： 3</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额</t>
+    <t>技术员最高生意额技术员金额</t>
   </si>
   <si>
     <t>仅供参考，不计算分数</t>
@@ -1485,12 +1485,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1577,20 +1577,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1602,68 +1605,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1677,44 +1619,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1735,9 +1640,104 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1817,7 +1817,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,25 +1907,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,7 +1943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,7 +1967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1889,31 +1985,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1925,85 +2027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2015,55 +2039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2088,6 +2070,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2199,8 +2199,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2222,10 +2237,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2240,17 +2253,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2266,15 +2275,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2318,205 +2318,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2525,25 +2525,25 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2566,10 +2566,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1">
@@ -2581,7 +2581,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2593,10 +2593,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2608,34 +2608,34 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2644,7 +2644,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2659,16 +2659,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2686,10 +2686,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2698,22 +2698,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2722,10 +2722,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2734,10 +2734,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2755,19 +2755,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2776,22 +2776,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2800,16 +2800,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2818,7 +2818,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2827,34 +2827,34 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2865,10 +2865,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2900,26 +2900,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3294,8 +3294,8 @@
   <sheetPr/>
   <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
